--- a/Study Materials/ParticipantData/20111211DataCodingMasterv2.xlsx
+++ b/Study Materials/ParticipantData/20111211DataCodingMasterv2.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6040" yWindow="-80" windowWidth="21600" windowHeight="14240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="2580" yWindow="2960" windowWidth="24060" windowHeight="14600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="MasterData" sheetId="6" r:id="rId1"/>
     <sheet name="Totals" sheetId="7" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MasterData!$A$1:$T$49</definedName>
+  </definedNames>
   <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -20,9 +23,101 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="194">
   <si>
     <t>4: provide support</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>everyone who was having a hard time and shared her religious beliefs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Including</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excluding</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Family and others who who would be interested in such personal info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>People in her major under the same circumstances</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Any friend who could empathize with her plight of being addicted to Facebook games</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I was getting exhausted thinking of work and figured everyone else could relate at this time of year.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chem presentation went well today!! But now I don't know what to do with my life considering the class I stressed about for the past 3 months is now over.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>I thought about updating my status about how I was glad my week was finally over.  TGIF</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">I am running on 2 hours of sleep, and felt really stressed with all the other things that I needed to still do. </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sjksdjjdjsjsjjdjd math test!!!!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Why do i even study? - status update decided not to post</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can't believe I have 3 tests AND finals NEXT week</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Blank]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status update: i'd be just fine if my professors decided to just grade me on my progress so far and forget about all this 'finals' nonsense. Ive proven m</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forgot my wallet again- status update</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Programming can smd. Status update</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>This week is going by too fast!!! :(</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sometimes I wake up a little early because I am curious as to whether or not people have liked my statuses #loser" fb status</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status Update: "i swear i just heard Link yell 'bitch' as he stabbed a giant spider"</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status update: 'double fisting in the morning!'</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status: I hate it when I have a song in my head but only know the tune and not the lyrics</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A victim treats his mugger right- link via npr news </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -57,9 +152,6 @@
     <t>I was pulling an all nighter, and was going to post a status about how grumpy I was</t>
   </si>
   <si>
-    <t>People in her major under the same circumstances</t>
-  </si>
-  <si>
     <t>Everyone not in her major or in CMU</t>
   </si>
   <si>
@@ -135,9 +227,6 @@
     <t>13: too much effort</t>
   </si>
   <si>
-    <t>Family and others who who would be interested in such personal info</t>
-  </si>
-  <si>
     <t>Friends who already knew. All CMU students. Smaller group of close friends  of ~12-13 people</t>
   </si>
   <si>
@@ -168,9 +257,6 @@
     <t>Family/impersonal friends</t>
   </si>
   <si>
-    <t>Chem presentation went well today!! But now I don't know what to do with my life considering the class I stressed about for the past 3 months is now over.</t>
-  </si>
-  <si>
     <t>Family</t>
   </si>
   <si>
@@ -180,9 +266,6 @@
     <t>Status: wasnt interesting enough</t>
   </si>
   <si>
-    <t>I thought about updating my status about how I was glad my week was finally over.  TGIF</t>
-  </si>
-  <si>
     <t>Other people in the same situation</t>
   </si>
   <si>
@@ -201,9 +284,6 @@
     <t>Closest friends who were in the picture</t>
   </si>
   <si>
-    <t>No one in particular</t>
-  </si>
-  <si>
     <t>Posting some pictures, not appropriate for facebook</t>
   </si>
   <si>
@@ -225,12 +305,6 @@
     <t>There's a funny post I found on Google+ describing different economies using the example of "You have two cows...". I thought it would be cute to share</t>
   </si>
   <si>
-    <t>Status update: i'd be just fine if my professors decided to just grade me on my progress so far and forget about all this 'finals' nonsense. Ive proven m</t>
-  </si>
-  <si>
-    <t>I was getting exhausted thinking of work and figured everyone else could relate at this time of year.</t>
-  </si>
-  <si>
     <t>yself to this point!!</t>
   </si>
   <si>
@@ -255,21 +329,12 @@
     <t xml:space="preserve">I was playing a lot of tetris instead of studying </t>
   </si>
   <si>
-    <t xml:space="preserve">A victim treats his mugger right- link via npr news </t>
-  </si>
-  <si>
     <t>it was a newspaper article</t>
   </si>
   <si>
-    <t>Why do i even study? - status update decided not to post</t>
-  </si>
-  <si>
     <t>I failed my test</t>
   </si>
   <si>
-    <t>Forgot my wallet again- status update</t>
-  </si>
-  <si>
     <t>Forgot my wallet when I promised someone that I will pay for that coffee</t>
   </si>
   <si>
@@ -303,9 +368,6 @@
     <t>slept for 2 hours in two days.  Very very tired and stressed</t>
   </si>
   <si>
-    <t>Status Update: "i swear i just heard Link yell 'bitch' as he stabbed a giant spider"</t>
-  </si>
-  <si>
     <t xml:space="preserve">I was watching an add for a video game and thought i heard the main character swear so i was going to comment. </t>
   </si>
   <si>
@@ -328,9 +390,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">I am running on 2 hours of sleep, and felt really stressed with all the other things that I needed to still do. </t>
-  </si>
-  <si>
     <t>Comment on friends wall "we are meant to be roommates. I come home to ptfo and there you are already ptfoed lols. Love you!"</t>
   </si>
   <si>
@@ -349,15 +408,9 @@
     <t xml:space="preserve">I wanted to post information/video ad of the iRobot Scooba (a floor washing robot) that i found on woot.com. </t>
   </si>
   <si>
-    <t>Status update: 'double fisting in the morning!'</t>
-  </si>
-  <si>
     <t>"Going to eat my #25 worth." There was a banquet tonight for all you can eat bbq for 25 dollars</t>
   </si>
   <si>
-    <t>Programming can smd. Status update</t>
-  </si>
-  <si>
     <t>Working on programming homework, and it was super frustrating. I could not solve my problem</t>
   </si>
   <si>
@@ -367,9 +420,6 @@
     <t>I was working and I wanted someone to come keep me company due to the fact that I was really bored.</t>
   </si>
   <si>
-    <t>This week is going by too fast!!! :(</t>
-  </si>
-  <si>
     <t>I have so many tests and quizzes and presentations this week. I feel like im not prepared for them.</t>
   </si>
   <si>
@@ -379,15 +429,9 @@
     <t>I was studying for a math test in the lounge and I was the only one in there. I was also listening to music and a song that I really liked was playing, so I was rocking out to it.</t>
   </si>
   <si>
-    <t>Sjksdjjdjsjsjjdjd math test!!!!</t>
-  </si>
-  <si>
     <t>I was studying for a math test that I was not really understanding</t>
   </si>
   <si>
-    <t>Can't believe I have 3 tests AND finals NEXT week</t>
-  </si>
-  <si>
     <t>I was really frustrated that I was studying for my math test, but there also a culmination of other tests and finals that I have yet studied for.</t>
   </si>
   <si>
@@ -403,9 +447,6 @@
     <t>long_description</t>
   </si>
   <si>
-    <t>"sometimes I wake up a little early because I am curious as to whether or not people have liked my statuses #loser" fb status</t>
-  </si>
-  <si>
     <t xml:space="preserve">I had posted a status overnight and noticed that I had woken up early just to see if anyone had liked it. </t>
   </si>
   <si>
@@ -415,9 +456,6 @@
     <t>Facebook Status: "Just received $500. It's a good day."</t>
   </si>
   <si>
-    <t>Status: I hate it when I have a song in my head but only know the tune and not the lyrics</t>
-  </si>
-  <si>
     <t>There was a song that was playing when I was at this website and now not only can I not find the song, but the tune is still in my head!</t>
   </si>
   <si>
@@ -478,12 +516,6 @@
     <t xml:space="preserve">People that may have made fun of me. </t>
   </si>
   <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>one friend</t>
   </si>
   <si>
@@ -526,15 +558,9 @@
     <t>friends</t>
   </si>
   <si>
-    <t>somebody</t>
-  </si>
-  <si>
     <t>Busy classmates/friends</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Just her roommate</t>
   </si>
   <si>
@@ -562,9 +588,6 @@
     <t>other busy, hardworking cmu students</t>
   </si>
   <si>
-    <t>Any friend who could empathize with her plight of being addicted to Facebook games</t>
-  </si>
-  <si>
     <t>Older mentors who would criticize her for not studying</t>
   </si>
   <si>
@@ -584,12 +607,6 @@
   </si>
   <si>
     <t>non religious people or people who don't share her religious beliefs</t>
-  </si>
-  <si>
-    <t>everyone who was having a hard time and shared her religious beliefs</t>
-  </si>
-  <si>
-    <t>no one in particular</t>
   </si>
   <si>
     <t>professors</t>
@@ -1098,77 +1115,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="19" max="19" width="36.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="52">
       <c r="A1" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B2" s="1">
         <v>8</v>
@@ -1177,10 +1198,10 @@
         <v>80</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1">
@@ -1200,15 +1221,15 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B3" s="1">
         <v>8</v>
@@ -1217,10 +1238,10 @@
         <v>87</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1239,16 +1260,14 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-      <c r="S3" s="1" t="s">
-        <v>147</v>
-      </c>
+      <c r="S3" s="1"/>
       <c r="T3" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B4" s="1">
         <v>14</v>
@@ -1257,10 +1276,10 @@
         <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1">
@@ -1286,7 +1305,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B5" s="1">
         <v>14</v>
@@ -1295,10 +1314,10 @@
         <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1319,16 +1338,12 @@
       <c r="R5" s="1">
         <v>1</v>
       </c>
-      <c r="S5" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>148</v>
-      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B6" s="1">
         <v>14</v>
@@ -1337,10 +1352,10 @@
         <v>64</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -1362,15 +1377,15 @@
         <v>1</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B7" s="1">
         <v>14</v>
@@ -1379,10 +1394,10 @@
         <v>65</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1398,13 +1413,13 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="T7" s="2"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B8" s="1">
         <v>14</v>
@@ -1413,10 +1428,10 @@
         <v>74</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1442,7 +1457,7 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B9" s="1">
         <v>14</v>
@@ -1451,10 +1466,10 @@
         <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1">
@@ -1476,13 +1491,13 @@
         <v>1</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="T9" s="2"/>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
@@ -1491,10 +1506,10 @@
         <v>91</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>130</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1">
@@ -1513,16 +1528,12 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-      <c r="S10" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>148</v>
-      </c>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B11" s="1">
         <v>8</v>
@@ -1531,10 +1542,10 @@
         <v>107</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1554,15 +1565,13 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>148</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B12" s="1">
         <v>14</v>
@@ -1571,10 +1580,10 @@
         <v>86</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1595,12 +1604,12 @@
       <c r="R12" s="1"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B13" s="1">
         <v>14</v>
@@ -1609,10 +1618,10 @@
         <v>89</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1634,15 +1643,13 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>148</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B14" s="1">
         <v>14</v>
@@ -1651,10 +1658,10 @@
         <v>90</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1670,15 +1677,15 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B15" s="1">
         <v>14</v>
@@ -1687,10 +1694,10 @@
         <v>99</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -1714,7 +1721,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B16" s="1">
         <v>14</v>
@@ -1723,10 +1730,10 @@
         <v>111</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1748,15 +1755,15 @@
         <v>1</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B17" s="1">
         <v>14</v>
@@ -1765,7 +1772,7 @@
         <v>116</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1787,16 +1794,12 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>148</v>
-      </c>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
     </row>
     <row r="18" spans="1:20" ht="12" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B18" s="1">
         <v>13</v>
@@ -1805,10 +1808,10 @@
         <v>47</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1">
@@ -1830,15 +1833,15 @@
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T18" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B19" s="1">
         <v>13</v>
@@ -1847,10 +1850,10 @@
         <v>48</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1870,15 +1873,13 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>165</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="T19" s="1"/>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B20" s="1">
         <v>13</v>
@@ -1887,10 +1888,10 @@
         <v>58</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1912,15 +1913,15 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="T20" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B21" s="1">
         <v>13</v>
@@ -1929,10 +1930,10 @@
         <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1952,15 +1953,15 @@
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="T21" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B22" s="1">
         <v>7</v>
@@ -1969,10 +1970,10 @@
         <v>39</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>101</v>
+        <v>10</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1992,15 +1993,13 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="T22" s="1" t="s">
         <v>165</v>
       </c>
+      <c r="T22" s="1"/>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B23" s="1">
         <v>7</v>
@@ -2009,10 +2008,10 @@
         <v>41</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1">
@@ -2034,13 +2033,11 @@
       <c r="S23" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="T23" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="T23" s="1"/>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B24" s="1">
         <v>7</v>
@@ -2049,10 +2046,10 @@
         <v>46</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1">
@@ -2074,13 +2071,11 @@
       <c r="S24" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="T24" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="T24" s="1"/>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B25" s="1">
         <v>7</v>
@@ -2089,10 +2084,10 @@
         <v>53</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1">
@@ -2114,13 +2109,11 @@
       <c r="S25" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="T25" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="T25" s="1"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B26" s="1">
         <v>7</v>
@@ -2129,10 +2122,10 @@
         <v>66</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1">
@@ -2156,7 +2149,7 @@
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B27" s="1">
         <v>7</v>
@@ -2165,10 +2158,10 @@
         <v>71</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2192,7 +2185,7 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B28" s="1">
         <v>7</v>
@@ -2201,13 +2194,13 @@
         <v>84</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -2230,7 +2223,7 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B29" s="1">
         <v>7</v>
@@ -2239,10 +2232,10 @@
         <v>96</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>114</v>
+        <v>18</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -2268,13 +2261,11 @@
       <c r="S29" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="T29" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="T29" s="1"/>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B30" s="1">
         <v>7</v>
@@ -2283,10 +2274,10 @@
         <v>97</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1">
@@ -2306,13 +2297,11 @@
       <c r="S30" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="T30" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="T30" s="1"/>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B31" s="1">
         <v>7</v>
@@ -2321,10 +2310,10 @@
         <v>102</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -2346,13 +2335,11 @@
       <c r="S31" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="T31" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="T31" s="1"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B32" s="1">
         <v>7</v>
@@ -2361,10 +2348,10 @@
         <v>103</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -2388,13 +2375,11 @@
       <c r="S32" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="T32" s="1" t="s">
-        <v>165</v>
-      </c>
+      <c r="T32" s="1"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B33" s="1">
         <v>13</v>
@@ -2403,10 +2388,10 @@
         <v>78</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -2428,15 +2413,15 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1" t="s">
-        <v>183</v>
+        <v>1</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B34" s="1">
         <v>13</v>
@@ -2445,10 +2430,10 @@
         <v>85</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2467,16 +2452,14 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
-      <c r="S34" s="1" t="s">
-        <v>184</v>
-      </c>
+      <c r="S34" s="1"/>
       <c r="T34" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:20">
       <c r="A35" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B35" s="1">
         <v>13</v>
@@ -2485,10 +2468,10 @@
         <v>95</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2507,16 +2490,14 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
-      <c r="S35" s="1" t="s">
-        <v>184</v>
-      </c>
+      <c r="S35" s="1"/>
       <c r="T35" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B36" s="1">
         <v>13</v>
@@ -2525,13 +2506,13 @@
         <v>106</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
@@ -2548,15 +2529,13 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="T36" s="1" t="s">
-        <v>165</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="T36" s="1"/>
     </row>
     <row r="37" spans="1:20" s="7" customFormat="1">
       <c r="A37" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B37" s="6">
         <v>9</v>
@@ -2565,10 +2544,10 @@
         <v>44</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -2577,15 +2556,15 @@
         <v>1</v>
       </c>
       <c r="S37" s="6" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="T37" s="6" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:20" s="7" customFormat="1">
       <c r="A38" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B38" s="6">
         <v>9</v>
@@ -2594,27 +2573,25 @@
         <v>59</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="L38" s="7">
         <v>1</v>
       </c>
-      <c r="S38" s="6" t="s">
-        <v>165</v>
-      </c>
+      <c r="S38" s="6"/>
       <c r="T38" s="6" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:20" s="7" customFormat="1">
       <c r="A39" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B39" s="6">
         <v>9</v>
@@ -2623,27 +2600,27 @@
         <v>79</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="Q39" s="7">
         <v>1</v>
       </c>
       <c r="S39" s="6" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="T39" s="6" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:20" s="7" customFormat="1">
       <c r="A40" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B40" s="6">
         <v>9</v>
@@ -2652,10 +2629,10 @@
         <v>101</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="J40" s="7">
         <v>1</v>
@@ -2670,15 +2647,15 @@
         <v>1</v>
       </c>
       <c r="S40" s="6" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="T40" s="6" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:20" s="7" customFormat="1">
       <c r="A41" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B41" s="6">
         <v>11</v>
@@ -2687,10 +2664,10 @@
         <v>51</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="J41" s="7">
         <v>1</v>
@@ -2699,15 +2676,15 @@
         <v>1</v>
       </c>
       <c r="S41" s="6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="T41" s="6" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:20" s="7" customFormat="1">
       <c r="A42" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B42" s="6">
         <v>11</v>
@@ -2716,27 +2693,25 @@
         <v>52</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="R42" s="7">
         <v>1</v>
       </c>
       <c r="S42" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="T42" s="6" t="s">
-        <v>59</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="T42" s="6"/>
     </row>
     <row r="43" spans="1:20" s="7" customFormat="1">
       <c r="A43" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B43" s="6">
         <v>11</v>
@@ -2745,27 +2720,27 @@
         <v>62</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="L43" s="7">
         <v>1</v>
       </c>
       <c r="S43" s="6" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="T43" s="6" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="7" customFormat="1">
       <c r="A44" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B44" s="6">
         <v>11</v>
@@ -2774,10 +2749,10 @@
         <v>77</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="I44" s="7">
         <v>1</v>
@@ -2786,15 +2761,15 @@
         <v>1</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="T44" s="6" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="7" customFormat="1">
       <c r="A45" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B45" s="6">
         <v>11</v>
@@ -2803,27 +2778,27 @@
         <v>92</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="Q45" s="7">
         <v>1</v>
       </c>
       <c r="S45" s="6" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="T45" s="6" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="7" customFormat="1">
       <c r="A46" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B46" s="6">
         <v>11</v>
@@ -2832,10 +2807,10 @@
         <v>93</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="J46" s="7">
         <v>1</v>
@@ -2844,15 +2819,15 @@
         <v>1</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="T46" s="6" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:20" s="7" customFormat="1">
       <c r="A47" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B47" s="6">
         <v>11</v>
@@ -2861,27 +2836,27 @@
         <v>94</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="L47" s="7">
         <v>1</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="T47" s="6" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="7" customFormat="1">
       <c r="A48" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B48" s="6">
         <v>11</v>
@@ -2890,27 +2865,27 @@
         <v>112</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="P48" s="7">
         <v>1</v>
       </c>
       <c r="S48" s="6" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="T48" s="6" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:20" s="7" customFormat="1">
       <c r="A49" s="6" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B49" s="6">
         <v>11</v>
@@ -2919,28 +2894,30 @@
         <v>113</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="L49" s="7">
         <v>1</v>
       </c>
       <c r="S49" s="6" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="T49" s="6" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:T49"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2951,10 +2928,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2962,121 +2939,128 @@
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:4">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3">
         <f>SUM(MasterData!G1:G48)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4">
         <f>SUM(MasterData!H2:H49)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <f>SUM(MasterData!I2:I49)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
         <f>SUM(MasterData!J2:J49)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
         <f>SUM(MasterData!K2:K49)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8">
         <f>SUM(MasterData!L2:L49)</f>
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8">
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9">
         <f>SUM(MasterData!M2:M49)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10">
         <f>SUM(MasterData!N2:N49)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10">
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11">
         <f>SUM(MasterData!O2:O49)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11">
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12">
         <f>SUM(MasterData!P2:P49)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12">
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13">
         <f>SUM(MasterData!Q2:Q49)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13">
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14">
         <f>SUM(MasterData!R2:R49)</f>
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
